--- a/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F06DCB-EA21-41F6-AF3B-19754646092D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2B0944-EB92-44FB-A5FB-2BC207D67E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D1FE676-7D25-4555-A1C9-00E6547A7BF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97A78BD6-1DA4-4F98-B72D-59590E022167}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,33%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,67%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,56%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>40,43%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
   </si>
   <si>
     <t>39,82%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>60,18%</t>
   </si>
   <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>68,61%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>69,35%</t>
   </si>
   <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,418 +311,418 @@
     <t>17,44%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>35,64%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>63,26%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>64,36%</t>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>43,13%</t>
   </si>
   <si>
-    <t>37,85%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>51,74%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>45,2%</t>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>42,16%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>54,8%</t>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
   </si>
   <si>
     <t>57,84%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
@@ -731,211 +731,217 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>40,69%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>41,27%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>39,31%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>59,31%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>58,73%</t>
   </si>
   <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>60,69%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>57,51%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>42,49%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
   </si>
   <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>68,08%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>31,92%</t>
   </si>
   <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>56,47%</t>
   </si>
   <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CE6301-5916-43AC-BD36-214FC92DD906}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833A5D93-81CF-4272-A21D-9918232AFB82}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1984,7 +1990,7 @@
         <v>1695</v>
       </c>
       <c r="D14" s="7">
-        <v>1723914</v>
+        <v>1723915</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2035,7 +2041,7 @@
         <v>2408</v>
       </c>
       <c r="D15" s="7">
-        <v>2456245</v>
+        <v>2456246</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBC20D7-026C-4C43-B910-FC3BAE1EE233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561CC033-B999-4EB2-956B-10EA95D39946}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2410,10 +2416,10 @@
         <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2434,13 @@
         <v>1158008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>929</v>
@@ -2443,13 +2449,13 @@
         <v>1005443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2027</v>
@@ -2458,13 +2464,13 @@
         <v>2163450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2538,13 @@
         <v>190688</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -2547,13 +2553,13 @@
         <v>231143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>380</v>
@@ -2562,13 +2568,13 @@
         <v>421831</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2589,13 @@
         <v>251446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>174</v>
@@ -2598,13 +2604,13 @@
         <v>192580</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>403</v>
@@ -2613,13 +2619,13 @@
         <v>444026</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2693,13 @@
         <v>856809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>997</v>
@@ -2702,13 +2708,13 @@
         <v>1075557</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>1797</v>
@@ -2756,10 +2762,10 @@
         <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>3844</v>
@@ -2768,13 +2774,13 @@
         <v>4118435</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5C69B5-C4B7-499D-AB62-E0F1A61A7204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004A3E9A-5F1C-48DE-9F13-A1B00F045CA2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2979,13 @@
         <v>125302</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -2988,13 +2994,13 @@
         <v>216474</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>330</v>
@@ -3003,13 +3009,13 @@
         <v>341776</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3030,13 @@
         <v>332117</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>381</v>
@@ -3039,13 +3045,13 @@
         <v>422400</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>713</v>
@@ -3054,13 +3060,13 @@
         <v>754518</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3134,13 @@
         <v>704537</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>736</v>
@@ -3143,13 +3149,13 @@
         <v>760063</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>1400</v>
@@ -3158,13 +3164,13 @@
         <v>1464600</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>992068</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>910</v>
@@ -3194,13 +3200,13 @@
         <v>948656</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>1845</v>
@@ -3209,13 +3215,13 @@
         <v>1940724</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3289,13 @@
         <v>252422</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>259</v>
@@ -3298,13 +3304,13 @@
         <v>264082</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>495</v>
@@ -3313,13 +3319,13 @@
         <v>516504</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3340,13 @@
         <v>246822</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3349,13 +3355,13 @@
         <v>244238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>452</v>
@@ -3364,13 +3370,13 @@
         <v>491060</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3444,13 @@
         <v>1082261</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>1196</v>
@@ -3453,13 +3459,13 @@
         <v>1240619</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>2225</v>
@@ -3468,13 +3474,13 @@
         <v>2322880</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3495,13 @@
         <v>1571008</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>1520</v>
@@ -3504,13 +3510,13 @@
         <v>1615294</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>3010</v>
@@ -3600,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E06C82B-0EA4-4331-8027-1F2711C0059E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E34F3B-8831-4C83-A2BB-1B00D68D52E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,10 +3733,10 @@
         <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>540</v>
@@ -3739,13 +3745,13 @@
         <v>329639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>758</v>
@@ -3754,13 +3760,13 @@
         <v>514737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3781,13 @@
         <v>325585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -3790,13 +3796,13 @@
         <v>469085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1260</v>
@@ -3805,13 +3811,13 @@
         <v>794670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3885,13 @@
         <v>1205668</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>1812</v>
@@ -3894,13 +3900,13 @@
         <v>1320816</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>2951</v>
@@ -3909,13 +3915,13 @@
         <v>2526485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3936,13 @@
         <v>890952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>1037</v>
@@ -3945,13 +3951,13 @@
         <v>885338</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>1821</v>
@@ -3960,13 +3966,13 @@
         <v>1776290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4040,13 @@
         <v>455548</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>678</v>
@@ -4049,13 +4055,13 @@
         <v>474543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>1137</v>
@@ -4064,13 +4070,13 @@
         <v>930091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4091,13 @@
         <v>206507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -4100,13 +4106,13 @@
         <v>229518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -4115,13 +4121,13 @@
         <v>436025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4195,13 @@
         <v>1846314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>3030</v>
@@ -4204,13 +4210,13 @@
         <v>2124998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>4846</v>
@@ -4219,13 +4225,13 @@
         <v>3971313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4246,13 @@
         <v>1423044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>2177</v>
@@ -4255,13 +4261,13 @@
         <v>1583942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>3603</v>
@@ -4270,13 +4276,13 @@
         <v>3006985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2B0944-EB92-44FB-A5FB-2BC207D67E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D05690D-BB17-490A-8134-3BBC8FDA4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97A78BD6-1DA4-4F98-B72D-59590E022167}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB3DEC3F-CB45-4179-890F-691FF5312E58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>23,33%</t>
   </si>
   <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>25,65%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,67%</t>
   </si>
   <si>
-    <t>73,24%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>29,56%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,532 +197,544 @@
     <t>40,43%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>39,82%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>60,18%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>29,64%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2015 (Tasa respuesta: 80,03%)</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>33,88%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
   </si>
   <si>
     <t>31,18%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>66,12%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>68,82%</t>
   </si>
   <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
   </si>
   <si>
     <t>41,53%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>44,48%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
   </si>
   <si>
     <t>58,47%</t>
   </si>
   <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
   </si>
   <si>
     <t>55,52%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
   </si>
   <si>
     <t>50,56%</t>
   </si>
   <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
   <si>
     <t>49,44%</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>51,74%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>42,16%</t>
   </si>
   <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>57,84%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833A5D93-81CF-4272-A21D-9918232AFB82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73BABD9-B2C2-4A17-8CCD-938FFCAF96CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1960,10 +1972,10 @@
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1552</v>
@@ -1972,13 +1984,13 @@
         <v>1592395</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +2005,13 @@
         <v>1723915</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1839</v>
@@ -2008,13 +2020,13 @@
         <v>1879942</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
         <v>3534</v>
@@ -2023,13 +2035,13 @@
         <v>3603857</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561CC033-B999-4EB2-956B-10EA95D39946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA5E4AE-A399-4C1E-8C52-33EF746DEF54}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2133,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2228,13 +2240,13 @@
         <v>135851</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>242</v>
@@ -2243,13 +2255,13 @@
         <v>260576</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>371</v>
@@ -2258,13 +2270,13 @@
         <v>396427</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2291,13 @@
         <v>643323</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>810</v>
@@ -2294,13 +2306,13 @@
         <v>867636</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1414</v>
@@ -2309,13 +2321,13 @@
         <v>1510959</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2395,13 @@
         <v>530270</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>547</v>
@@ -2398,13 +2410,13 @@
         <v>583837</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1046</v>
@@ -2413,13 +2425,13 @@
         <v>1114108</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2446,13 @@
         <v>1158008</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>929</v>
@@ -2449,13 +2461,13 @@
         <v>1005443</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2027</v>
@@ -2464,13 +2476,13 @@
         <v>2163450</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2550,13 @@
         <v>190688</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>208</v>
@@ -2553,13 +2565,13 @@
         <v>231143</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>380</v>
@@ -2568,13 +2580,13 @@
         <v>421831</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2601,13 @@
         <v>251446</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>174</v>
@@ -2604,13 +2616,13 @@
         <v>192580</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>403</v>
@@ -2619,13 +2631,13 @@
         <v>444026</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2705,13 @@
         <v>856809</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>997</v>
@@ -2708,13 +2720,13 @@
         <v>1075557</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>1797</v>
@@ -2762,25 +2774,25 @@
         <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>3844</v>
       </c>
       <c r="N14" s="7">
-        <v>4118435</v>
+        <v>4118436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,7 +2834,7 @@
         <v>5641</v>
       </c>
       <c r="N15" s="7">
-        <v>6050801</v>
+        <v>6050802</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2836,7 +2848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004A3E9A-5F1C-48DE-9F13-A1B00F045CA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE3D0D-2BA4-4C94-B2DF-06457E92FAC7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2991,13 @@
         <v>125302</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -2994,13 +3006,13 @@
         <v>216474</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>330</v>
@@ -3009,13 +3021,13 @@
         <v>341776</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3042,13 @@
         <v>332117</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>381</v>
@@ -3045,13 +3057,13 @@
         <v>422400</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>713</v>
@@ -3060,13 +3072,13 @@
         <v>754518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>704537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>736</v>
@@ -3149,13 +3161,13 @@
         <v>760063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>1400</v>
@@ -3164,13 +3176,13 @@
         <v>1464600</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>992068</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>910</v>
@@ -3200,13 +3212,13 @@
         <v>948656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>1845</v>
@@ -3215,13 +3227,13 @@
         <v>1940724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3301,13 @@
         <v>252422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>259</v>
@@ -3304,13 +3316,13 @@
         <v>264082</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>495</v>
@@ -3319,13 +3331,13 @@
         <v>516504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>246822</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3355,13 +3367,13 @@
         <v>244238</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>452</v>
@@ -3370,13 +3382,13 @@
         <v>491060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3456,13 @@
         <v>1082261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1196</v>
@@ -3459,13 +3471,13 @@
         <v>1240619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>2225</v>
@@ -3474,13 +3486,13 @@
         <v>2322880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3507,13 @@
         <v>1571008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>1520</v>
@@ -3510,13 +3522,13 @@
         <v>1615294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>3010</v>
@@ -3525,13 +3537,13 @@
         <v>3186302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,7 +3599,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E34F3B-8831-4C83-A2BB-1B00D68D52E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047CF11-8115-4030-9AF7-BF9DB23D6DD5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3742,13 @@
         <v>185098</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>540</v>
@@ -3745,13 +3757,13 @@
         <v>329639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>758</v>
@@ -3760,13 +3772,13 @@
         <v>514737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>325585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -3796,13 +3808,13 @@
         <v>469085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1260</v>
@@ -3811,13 +3823,13 @@
         <v>794670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3897,13 @@
         <v>1205668</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1812</v>
@@ -3900,13 +3912,13 @@
         <v>1320816</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>2951</v>
@@ -3915,13 +3927,13 @@
         <v>2526485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3948,13 @@
         <v>890952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1037</v>
@@ -3951,13 +3963,13 @@
         <v>885338</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1821</v>
@@ -3966,13 +3978,13 @@
         <v>1776290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4052,13 @@
         <v>455548</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>678</v>
@@ -4055,13 +4067,13 @@
         <v>474543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>1137</v>
@@ -4070,13 +4082,13 @@
         <v>930091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>206507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -4106,13 +4118,13 @@
         <v>229518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -4121,13 +4133,13 @@
         <v>436025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>1846314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>3030</v>
@@ -4210,13 +4222,13 @@
         <v>2124998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>4846</v>
@@ -4225,13 +4237,13 @@
         <v>3971313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>1423044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>2177</v>
@@ -4261,13 +4273,13 @@
         <v>1583942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>3603</v>
@@ -4276,13 +4288,13 @@
         <v>3006985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,7 +4350,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D05690D-BB17-490A-8134-3BBC8FDA4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00ABB440-1F6C-4981-83FC-C567FBE0B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB3DEC3F-CB45-4179-890F-691FF5312E58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDA5DD9C-8DFA-43ED-858F-76C20847CB81}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>76,67%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>29,56%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>32,52%</t>
@@ -161,31 +161,31 @@
     <t>30,78%</t>
   </si>
   <si>
-    <t>34,34%</t>
+    <t>34,65%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>65,66%</t>
+    <t>65,35%</t>
   </si>
   <si>
     <t>69,22%</t>
@@ -197,103 +197,109 @@
     <t>40,43%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>39,82%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
   </si>
   <si>
     <t>60,18%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>33,23%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>68,61%</t>
   </si>
   <si>
-    <t>66,77%</t>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>69,35%</t>
   </si>
   <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,655 +311,631 @@
     <t>17,44%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
+    <t>35,64%</t>
   </si>
   <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>63,26%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>64,36%</t>
   </si>
   <si>
     <t>43,13%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>54,55%</t>
   </si>
   <si>
-    <t>49,14%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
     <t>58,73%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
   </si>
   <si>
     <t>60,69%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
   </si>
   <si>
     <t>57,51%</t>
   </si>
   <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>42,49%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
   </si>
   <si>
     <t>68,81%</t>
   </si>
   <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>64,34%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
   </si>
   <si>
     <t>70,78%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
     <t>29,22%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>34,59%</t>
   </si>
   <si>
     <t>56,47%</t>
   </si>
   <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73BABD9-B2C2-4A17-8CCD-938FFCAF96CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D5E133-9080-4463-8144-1154C41443CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1972,10 +1954,10 @@
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1552</v>
@@ -1984,13 +1966,13 @@
         <v>1592395</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,16 +1984,16 @@
         <v>1695</v>
       </c>
       <c r="D14" s="7">
-        <v>1723915</v>
+        <v>1723914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1839</v>
@@ -2020,13 +2002,13 @@
         <v>1879942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>3534</v>
@@ -2035,13 +2017,13 @@
         <v>3603857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2035,7 @@
         <v>2408</v>
       </c>
       <c r="D15" s="7">
-        <v>2456246</v>
+        <v>2456245</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2097,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA5E4AE-A399-4C1E-8C52-33EF746DEF54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA1F61C-B49B-4399-ACB5-53AA7FEF37CD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,13 +2222,13 @@
         <v>135851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>242</v>
@@ -2255,13 +2237,13 @@
         <v>260576</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>371</v>
@@ -2270,13 +2252,13 @@
         <v>396427</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2273,13 @@
         <v>643323</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>810</v>
@@ -2306,13 +2288,13 @@
         <v>867636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1414</v>
@@ -2321,13 +2303,13 @@
         <v>1510959</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2377,13 @@
         <v>530270</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>547</v>
@@ -2410,13 +2392,13 @@
         <v>583837</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1046</v>
@@ -2425,13 +2407,13 @@
         <v>1114108</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2428,13 @@
         <v>1158008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>929</v>
@@ -2461,13 +2443,13 @@
         <v>1005443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>2027</v>
@@ -2476,13 +2458,13 @@
         <v>2163450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2765,7 @@
         <v>3844</v>
       </c>
       <c r="N14" s="7">
-        <v>4118436</v>
+        <v>4118435</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>156</v>
@@ -2834,7 +2816,7 @@
         <v>5641</v>
       </c>
       <c r="N15" s="7">
-        <v>6050802</v>
+        <v>6050801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2848,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE3D0D-2BA4-4C94-B2DF-06457E92FAC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD3C1F-3F6A-4B39-B6AE-119C15EE3908}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3316,13 +3298,13 @@
         <v>264082</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>495</v>
@@ -3331,13 +3313,13 @@
         <v>516504</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3334,13 @@
         <v>246822</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>229</v>
@@ -3367,13 +3349,13 @@
         <v>244238</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>452</v>
@@ -3382,13 +3364,13 @@
         <v>491060</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3438,13 @@
         <v>1082261</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1196</v>
@@ -3471,13 +3453,13 @@
         <v>1240619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>2225</v>
@@ -3486,13 +3468,13 @@
         <v>2322880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3489,13 @@
         <v>1571008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>1520</v>
@@ -3522,13 +3504,13 @@
         <v>1615294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>3010</v>
@@ -3537,13 +3519,13 @@
         <v>3186302</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7047CF11-8115-4030-9AF7-BF9DB23D6DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A3474D-70CE-4FEE-8B55-976C8BED2712}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3724,13 @@
         <v>185098</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>540</v>
@@ -3757,13 +3739,13 @@
         <v>329639</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>758</v>
@@ -3772,13 +3754,13 @@
         <v>514737</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3775,13 @@
         <v>325585</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
@@ -3808,13 +3790,13 @@
         <v>469085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1260</v>
@@ -3823,13 +3805,13 @@
         <v>794670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3879,13 @@
         <v>1205668</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>1812</v>
@@ -3912,13 +3894,13 @@
         <v>1320816</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>2951</v>
@@ -3927,13 +3909,13 @@
         <v>2526485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3930,13 @@
         <v>890952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>1037</v>
@@ -3963,13 +3945,13 @@
         <v>885338</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>1821</v>
@@ -3978,13 +3960,13 @@
         <v>1776290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4034,13 @@
         <v>455548</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>678</v>
@@ -4067,13 +4049,13 @@
         <v>474543</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>1137</v>
@@ -4082,13 +4064,13 @@
         <v>930091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4085,13 @@
         <v>206507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -4118,13 +4100,13 @@
         <v>229518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -4133,13 +4115,13 @@
         <v>436025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4189,13 @@
         <v>1846314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>3030</v>
@@ -4222,13 +4204,13 @@
         <v>2124998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>4846</v>
@@ -4237,13 +4219,13 @@
         <v>3971313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4240,13 @@
         <v>1423044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>2177</v>
@@ -4273,13 +4255,13 @@
         <v>1583942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>3603</v>
@@ -4288,13 +4270,13 @@
         <v>3006985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00ABB440-1F6C-4981-83FC-C567FBE0B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D5E944-B7C3-4BA6-B381-0020D57B7431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EDA5DD9C-8DFA-43ED-858F-76C20847CB81}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F5407251-2E7A-43B0-AF06-EC290F299778}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -728,214 +728,196 @@
     <t>Población según si el motivo por su última visita al dentista fue una revisión o chequeo en 2023 (Tasa respuesta: 96,89%)</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D5E133-9080-4463-8144-1154C41443CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B31FEC-CAB3-4340-90EA-F44D157CD651}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA1F61C-B49B-4399-ACB5-53AA7FEF37CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19E997A-0811-46EE-8BCB-F0CDBFC872A8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2285,7 +2267,7 @@
         <v>810</v>
       </c>
       <c r="I5" s="7">
-        <v>867636</v>
+        <v>867637</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2336,7 +2318,7 @@
         <v>1052</v>
       </c>
       <c r="I6" s="7">
-        <v>1128212</v>
+        <v>1128213</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD3C1F-3F6A-4B39-B6AE-119C15EE3908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687295C6-CFE4-4B0C-BF2E-70A97089D5CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,7 +2982,7 @@
         <v>330</v>
       </c>
       <c r="N4" s="7">
-        <v>341776</v>
+        <v>341775</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>166</v>
@@ -3102,7 +3084,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3600,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A3474D-70CE-4FEE-8B55-976C8BED2712}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F422DC0-A4CF-433F-8611-FFB3FB958C19}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,46 +3703,46 @@
         <v>218</v>
       </c>
       <c r="D4" s="7">
-        <v>185098</v>
+        <v>180962</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>540</v>
       </c>
       <c r="I4" s="7">
-        <v>329639</v>
+        <v>296274</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>758</v>
       </c>
       <c r="N4" s="7">
-        <v>514737</v>
+        <v>477235</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,46 +3754,46 @@
         <v>430</v>
       </c>
       <c r="D5" s="7">
-        <v>325585</v>
+        <v>303479</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>830</v>
       </c>
       <c r="I5" s="7">
-        <v>469085</v>
+        <v>425342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>1260</v>
       </c>
       <c r="N5" s="7">
-        <v>794670</v>
+        <v>728822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3805,7 @@
         <v>648</v>
       </c>
       <c r="D6" s="7">
-        <v>510683</v>
+        <v>484441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3820,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3835,7 @@
         <v>2018</v>
       </c>
       <c r="N6" s="7">
-        <v>1309407</v>
+        <v>1206057</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,46 +3858,46 @@
         <v>1139</v>
       </c>
       <c r="D7" s="7">
-        <v>1205668</v>
+        <v>1170440</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>1812</v>
       </c>
       <c r="I7" s="7">
-        <v>1320816</v>
+        <v>1259033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>2951</v>
       </c>
       <c r="N7" s="7">
-        <v>2526485</v>
+        <v>2429473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,46 +3909,46 @@
         <v>784</v>
       </c>
       <c r="D8" s="7">
-        <v>890952</v>
+        <v>1060097</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>1037</v>
       </c>
       <c r="I8" s="7">
-        <v>885338</v>
+        <v>938873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>1821</v>
       </c>
       <c r="N8" s="7">
-        <v>1776290</v>
+        <v>1998969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3960,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3975,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +3990,7 @@
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,28 +4013,28 @@
         <v>459</v>
       </c>
       <c r="D10" s="7">
-        <v>455548</v>
+        <v>434804</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>678</v>
       </c>
       <c r="I10" s="7">
-        <v>474543</v>
+        <v>439713</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>268</v>
@@ -4061,7 +4043,7 @@
         <v>1137</v>
       </c>
       <c r="N10" s="7">
-        <v>930091</v>
+        <v>874518</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4082,7 +4064,7 @@
         <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>206507</v>
+        <v>197216</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4097,31 +4079,31 @@
         <v>310</v>
       </c>
       <c r="I11" s="7">
-        <v>229518</v>
+        <v>211898</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
       </c>
       <c r="N11" s="7">
-        <v>436025</v>
+        <v>409114</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4115,7 @@
         <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>662055</v>
+        <v>632020</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4130,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4145,7 @@
         <v>1659</v>
       </c>
       <c r="N12" s="7">
-        <v>1366116</v>
+        <v>1283632</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,46 +4168,46 @@
         <v>1816</v>
       </c>
       <c r="D13" s="7">
-        <v>1846314</v>
+        <v>1786205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>3030</v>
       </c>
       <c r="I13" s="7">
-        <v>2124998</v>
+        <v>1995020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>4846</v>
       </c>
       <c r="N13" s="7">
-        <v>3971313</v>
+        <v>3781225</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,46 +4219,46 @@
         <v>1426</v>
       </c>
       <c r="D14" s="7">
-        <v>1423044</v>
+        <v>1560793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>2177</v>
       </c>
       <c r="I14" s="7">
-        <v>1583942</v>
+        <v>1576113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>3603</v>
       </c>
       <c r="N14" s="7">
-        <v>3006985</v>
+        <v>3136906</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4270,7 @@
         <v>3242</v>
       </c>
       <c r="D15" s="7">
-        <v>3269358</v>
+        <v>3346998</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4285,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4300,7 @@
         <v>8449</v>
       </c>
       <c r="N15" s="7">
-        <v>6978298</v>
+        <v>6918131</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
